--- a/Production/DataPublishing/V2 Publication Checks.xlsx
+++ b/Production/DataPublishing/V2 Publication Checks.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Ross\SLGA\SLGA\Production\NationalMaps\DataPublishing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7036BF42-9079-43E6-98D4-EB297BE21D8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A9F8992-6DBB-4D3F-BCB6-1A46AF23D402}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="300" yWindow="-15630" windowWidth="28260" windowHeight="13845" xr2:uid="{63309B6F-96B3-428D-A7E9-946A41D99D4F}"/>
+    <workbookView xWindow="3405" yWindow="1500" windowWidth="21600" windowHeight="11955" xr2:uid="{63309B6F-96B3-428D-A7E9-946A41D99D4F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="42">
   <si>
     <t>Product</t>
   </si>
@@ -94,16 +95,89 @@
   </si>
   <si>
     <t>equalsSLGA</t>
+  </si>
+  <si>
+    <t>DAP record</t>
+  </si>
+  <si>
+    <t>TERN Record</t>
+  </si>
+  <si>
+    <t>COGS Loaded</t>
+  </si>
+  <si>
+    <t>DAP Loaded</t>
+  </si>
+  <si>
+    <t>OGC Loaded</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUSsoil article </t>
+  </si>
+  <si>
+    <t>Ready to publish</t>
+  </si>
+  <si>
+    <t>Pedogenons</t>
+  </si>
+  <si>
+    <t>Submitted</t>
+  </si>
+  <si>
+    <t>Approved</t>
+  </si>
+  <si>
+    <t>ASC</t>
+  </si>
+  <si>
+    <t>Action</t>
+  </si>
+  <si>
+    <t>Dataset</t>
+  </si>
+  <si>
+    <t>replace</t>
+  </si>
+  <si>
+    <t>add new</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TERN COGs Datastore </t>
+  </si>
+  <si>
+    <t>AVP</t>
+  </si>
+  <si>
+    <t>TOC30</t>
+  </si>
+  <si>
+    <t>CFG</t>
+  </si>
+  <si>
+    <t>BDV</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>SOF</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -129,8 +203,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -445,20 +520,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{203B0EC5-CA01-4461-B6DB-C31E3441E8A1}">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:G8"/>
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="6" max="6" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.3984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.86328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.1328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.1328125" customWidth="1"/>
+    <col min="12" max="12" width="12.73046875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.59765625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.73046875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.86328125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -480,8 +566,38 @@
       <c r="G1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O1" t="s">
+        <v>26</v>
+      </c>
+      <c r="P1" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -503,8 +619,32 @@
       <c r="G2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M2" t="s">
+        <v>18</v>
+      </c>
+      <c r="N2" t="s">
+        <v>18</v>
+      </c>
+      <c r="O2" t="s">
+        <v>18</v>
+      </c>
+      <c r="P2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -526,8 +666,32 @@
       <c r="G3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N3" t="s">
+        <v>18</v>
+      </c>
+      <c r="O3" t="s">
+        <v>18</v>
+      </c>
+      <c r="P3" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -549,8 +713,32 @@
       <c r="G4" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M4" t="s">
+        <v>18</v>
+      </c>
+      <c r="N4" t="s">
+        <v>18</v>
+      </c>
+      <c r="O4" t="s">
+        <v>18</v>
+      </c>
+      <c r="P4" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -572,23 +760,116 @@
       <c r="G5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" t="s">
+        <v>18</v>
+      </c>
+      <c r="M5" t="s">
+        <v>18</v>
+      </c>
+      <c r="N5" t="s">
+        <v>18</v>
+      </c>
+      <c r="O5" t="s">
+        <v>18</v>
+      </c>
+      <c r="P5" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" t="s">
+        <v>18</v>
+      </c>
+      <c r="L6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" t="s">
+        <v>18</v>
+      </c>
+      <c r="L8" t="s">
+        <v>18</v>
+      </c>
+      <c r="M8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -610,8 +891,26 @@
       <c r="G9" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L9" t="s">
+        <v>18</v>
+      </c>
+      <c r="M9" t="s">
+        <v>18</v>
+      </c>
+      <c r="O9" t="s">
+        <v>18</v>
+      </c>
+      <c r="P9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -627,20 +926,421 @@
       <c r="E10" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10" t="s">
+        <v>18</v>
+      </c>
+      <c r="L10" t="s">
+        <v>18</v>
+      </c>
+      <c r="M10" t="s">
+        <v>18</v>
+      </c>
+      <c r="N10" t="s">
+        <v>18</v>
+      </c>
+      <c r="O10" t="s">
+        <v>18</v>
+      </c>
+      <c r="P10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M11" t="s">
+        <v>18</v>
+      </c>
+      <c r="O11" t="s">
+        <v>18</v>
+      </c>
+      <c r="P11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12" t="s">
+        <v>18</v>
+      </c>
+      <c r="L12" t="s">
+        <v>18</v>
+      </c>
+      <c r="M12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>15</v>
+      </c>
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H14" t="s">
+        <v>18</v>
+      </c>
+      <c r="I14" t="s">
+        <v>18</v>
+      </c>
+      <c r="L14" t="s">
+        <v>18</v>
+      </c>
+      <c r="M14" t="s">
+        <v>18</v>
+      </c>
+      <c r="O14" t="s">
+        <v>18</v>
+      </c>
+      <c r="P14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" t="s">
+        <v>18</v>
+      </c>
+      <c r="H15" t="s">
+        <v>18</v>
+      </c>
+      <c r="I15" t="s">
+        <v>18</v>
+      </c>
+      <c r="L15" t="s">
+        <v>18</v>
+      </c>
+      <c r="M15" t="s">
+        <v>18</v>
+      </c>
+      <c r="N15" t="s">
+        <v>18</v>
+      </c>
+      <c r="O15" t="s">
+        <v>18</v>
+      </c>
+      <c r="P15" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" t="s">
+        <v>18</v>
+      </c>
+      <c r="H17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I17" t="s">
+        <v>18</v>
+      </c>
+      <c r="L17" t="s">
+        <v>18</v>
+      </c>
+      <c r="M17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" t="s">
+        <v>18</v>
+      </c>
+      <c r="H18" t="s">
+        <v>18</v>
+      </c>
+      <c r="I18" t="s">
+        <v>18</v>
+      </c>
+      <c r="M18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>18</v>
+      </c>
+      <c r="F19" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" t="s">
+        <v>18</v>
+      </c>
+      <c r="H19" t="s">
+        <v>18</v>
+      </c>
+      <c r="I19" t="s">
+        <v>18</v>
+      </c>
+      <c r="M19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20" t="s">
+        <v>18</v>
+      </c>
+      <c r="F20" t="s">
+        <v>18</v>
+      </c>
+      <c r="G20" t="s">
+        <v>18</v>
+      </c>
+      <c r="H20" t="s">
+        <v>18</v>
+      </c>
+      <c r="I20" t="s">
+        <v>18</v>
+      </c>
+      <c r="M20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1C2CD4F-2394-4235-86D4-FED1D717E40A}">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
